--- a/testData/Data.xlsx
+++ b/testData/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49541F8F-9002-456B-A783-80CA6DD21FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78C9B36-60DC-42DC-910B-3C3C45FDC78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Login</t>
   </si>
@@ -65,18 +65,9 @@
     <t>ghdhg</t>
   </si>
   <si>
-    <t>mul</t>
-  </si>
-  <si>
     <t>Purchase</t>
   </si>
   <si>
-    <t>oeiwyroiw</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
     <t>Data1</t>
   </si>
   <si>
@@ -93,6 +84,12 @@
   </si>
   <si>
     <t>Krishna1992@</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -137,11 +134,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,34 +421,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -468,21 +464,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -496,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -508,20 +507,6 @@
       </c>
       <c r="D5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/testData/Data.xlsx
+++ b/testData/Data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium-Java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78C9B36-60DC-42DC-910B-3C3C45FDC78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0955B9E-0322-4245-8CE1-3B0B56CE47BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="testdata" sheetId="1" r:id="rId1"/>
+    <sheet name="Test-sheet" sheetId="1" r:id="rId1"/>
     <sheet name="sample" sheetId="2" r:id="rId2"/>
     <sheet name="demo" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -424,7 +424,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testData/Data.xlsx
+++ b/testData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium-Java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0955B9E-0322-4245-8CE1-3B0B56CE47BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE9F3F7-1148-4B2E-BA1E-8282021FEDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,13 +83,13 @@
     <t>jnanasr@gmail.com</t>
   </si>
   <si>
+    <t>IPHONE 13 PRO</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>Krishna1992@</t>
-  </si>
-  <si>
-    <t>IPHONE 13 PRO</t>
-  </si>
-  <si>
-    <t>India</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,13 +472,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
